--- a/Hardware/Purchase list.xlsx
+++ b/Hardware/Purchase list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omerg\Dropbox\Curiosity robotics\experiment\paper\open source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADD59239-D550-4773-941D-0F0AC12A8421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C3E0E9-7A0D-4FA9-92A1-DF69851FAB95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7625D014-8AE3-451E-B7F5-D921AB6FD5D6}"/>
   </bookViews>
@@ -108,18 +108,9 @@
     <t>JBL</t>
   </si>
   <si>
-    <t>https://ksp.co.il/?uin=45293&amp;appkey=1002&amp;enter_zap=1&amp;store=shipment&amp;utm_source=zap&amp;utm_medium=cpc&amp;utm_campaign=zap&amp;store=shipment&amp;param=2019</t>
-  </si>
-  <si>
     <t>audio cable male-male 3.5mm , 1m</t>
   </si>
   <si>
-    <t>https://www.ivory.co.il/catalog.php?id=13956&amp;site-search=1</t>
-  </si>
-  <si>
-    <t>Etion</t>
-  </si>
-  <si>
     <t>Neodymium magnet  - 12X5 mm disc - 10 pcs</t>
   </si>
   <si>
@@ -232,6 +223,15 @@
   </si>
   <si>
     <t>total price [$]</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/-/he/dp/B07CZ5TVCH/ref=sr_1_2?camp=1789&amp;encoding=UTF8%3F&amp;keywords=jbl+speaker+to+go&amp;linkCode=ur2&amp;qid=1578026847&amp;sr=</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/14164</t>
   </si>
 </sst>
 </file>
@@ -635,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61576FF5-6E5D-43F1-AFD4-A66351F161ED}">
-  <dimension ref="B1:G32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,8 +650,11 @@
     <col min="7" max="7" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -662,16 +665,19 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -692,7 +698,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -713,7 +722,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -734,7 +746,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -755,7 +770,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -773,7 +791,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -794,7 +815,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -815,7 +839,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -836,9 +863,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -854,9 +884,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -872,9 +905,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -887,12 +923,15 @@
         <v>6.7</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -905,12 +944,15 @@
         <v>1.6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -919,40 +961,43 @@
         <v>1</v>
       </c>
       <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>29</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -965,12 +1010,15 @@
         <v>3.9</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -983,15 +1031,18 @@
         <v>1.3</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1004,15 +1055,18 @@
         <v>17.5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1025,12 +1079,15 @@
         <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1043,12 +1100,15 @@
         <v>4.5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1061,12 +1121,15 @@
         <v>2.95</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -1079,12 +1142,15 @@
         <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>53</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1097,12 +1163,15 @@
         <v>4.95</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -1115,12 +1184,15 @@
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1133,12 +1205,15 @@
         <v>0.95</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1151,12 +1226,15 @@
         <v>0.35</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1169,12 +1247,15 @@
         <v>1.5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1187,16 +1268,16 @@
         <v>7.95</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F32">
         <f>SUM(F3:F31)</f>
-        <v>604.20000000000016</v>
+        <v>605.70000000000016</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Purchase list.xlsx
+++ b/Hardware/Purchase list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omerg\Dropbox\Curiosity robotics\experiment\paper\open source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C3E0E9-7A0D-4FA9-92A1-DF69851FAB95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8F62FB-F15F-407D-BB05-AEB263BDA900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7625D014-8AE3-451E-B7F5-D921AB6FD5D6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>part</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/14164</t>
+  </si>
+  <si>
+    <t>SWD (2x5 1.27mm) Cable Breakout Board</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/2743?hidden=yes&amp;main_page=product_info&amp;products_id=2743</t>
   </si>
 </sst>
 </file>
@@ -637,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61576FF5-6E5D-43F1-AFD4-A66351F161ED}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -715,7 +721,7 @@
         <v>7.95</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F29" si="0">E4*D4</f>
+        <f t="shared" ref="F4:F30" si="0">E4*D4</f>
         <v>7.95</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1132,14 +1138,14 @@
         <v>48</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>1.5</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>47</v>
@@ -1271,13 +1277,34 @@
         <v>60</v>
       </c>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>1.95</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
         <v>61</v>
       </c>
       <c r="F32">
         <f>SUM(F3:F31)</f>
-        <v>605.70000000000016</v>
+        <v>607.95000000000016</v>
       </c>
     </row>
   </sheetData>
@@ -1309,8 +1336,9 @@
     <hyperlink ref="G27" r:id="rId25" xr:uid="{72D94622-6216-4F7D-BED6-F8EA595DD847}"/>
     <hyperlink ref="G28" r:id="rId26" xr:uid="{90D224E1-EF99-4F48-835A-997CB5B1C09C}"/>
     <hyperlink ref="G29" r:id="rId27" xr:uid="{E949B33C-FEC4-466B-9E1B-E6CC0F31F781}"/>
+    <hyperlink ref="G30" r:id="rId28" xr:uid="{922F63DE-ED96-494C-B222-186C506A86C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/Hardware/Purchase list.xlsx
+++ b/Hardware/Purchase list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omerg\Dropbox\Curiosity robotics\experiment\paper\open source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8F62FB-F15F-407D-BB05-AEB263BDA900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DE129E-BE25-40DA-B5A4-07F47854F0F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7625D014-8AE3-451E-B7F5-D921AB6FD5D6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>part</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>https://www.adafruit.com/product/2743?hidden=yes&amp;main_page=product_info&amp;products_id=2743</t>
+  </si>
+  <si>
+    <t>Jumper Wires - Connected 6" (F/F, 20 pack)</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/12796</t>
   </si>
 </sst>
 </file>
@@ -643,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61576FF5-6E5D-43F1-AFD4-A66351F161ED}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -721,7 +727,7 @@
         <v>7.95</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F30" si="0">E4*D4</f>
+        <f t="shared" ref="F4:F31" si="0">E4*D4</f>
         <v>7.95</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1243,14 +1249,14 @@
         <v>57</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1.5</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>58</v>
@@ -1298,13 +1304,34 @@
         <v>68</v>
       </c>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1.95</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>5.85</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
         <v>61</v>
       </c>
       <c r="F32">
         <f>SUM(F3:F31)</f>
-        <v>607.95000000000016</v>
+        <v>615.30000000000018</v>
       </c>
     </row>
   </sheetData>
@@ -1337,8 +1364,9 @@
     <hyperlink ref="G28" r:id="rId26" xr:uid="{90D224E1-EF99-4F48-835A-997CB5B1C09C}"/>
     <hyperlink ref="G29" r:id="rId27" xr:uid="{E949B33C-FEC4-466B-9E1B-E6CC0F31F781}"/>
     <hyperlink ref="G30" r:id="rId28" xr:uid="{922F63DE-ED96-494C-B222-186C506A86C5}"/>
+    <hyperlink ref="G31" r:id="rId29" xr:uid="{B1FEC97B-318E-4443-A812-83FE0986D27F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>